--- a/ignitionDelay/ignitionDelayTiming.xlsx
+++ b/ignitionDelay/ignitionDelayTiming.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcgurn/scratch/ablateInputs/ignitionDelay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDFFDCD-2FD3-A04D-82AE-F9417C1E1354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE28CEF-6132-B14E-B6BC-7F5C8B2FE4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4860" yWindow="-24140" windowWidth="29600" windowHeight="18400" activeTab="2" xr2:uid="{28D714EA-BD16-0946-AA9F-A6F669615F48}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Case1</t>
   </si>
@@ -155,6 +155,27 @@
   </si>
   <si>
     <t>numJac, tchemSoot, 1E19ndd, griMech, sootDiff, 1E40Factor</t>
+  </si>
+  <si>
+    <t>relToleranceTime</t>
+  </si>
+  <si>
+    <t>absToleranceTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tchemSoo griMech</t>
+  </si>
+  <si>
+    <t>_default_tchem_noSoot_griMech_2023-03-20T13-40-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tchemSoo mma</t>
+  </si>
+  <si>
+    <t>_default_tchem_noSoot_griMech_2023-03-20T13-56-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tchemSoot mma 1.00E-02, 1.00E-04</t>
   </si>
 </sst>
 </file>
@@ -523,7 +544,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -830,13 +851,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474B55D0-28C0-9E46-BC47-895E6C286272}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -984,6 +1010,48 @@
       </c>
       <c r="D12">
         <v>2.4140000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="C15">
+        <v>2.4658200000000002E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5.1909999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="C16">
+        <v>2.4663999999999998E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.181</v>
       </c>
     </row>
   </sheetData>
@@ -993,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625B6812-154E-3B43-BF83-4E2174B1D5E9}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1083,19 +1151,19 @@
       <c r="G3">
         <v>182.9</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3">
         <f>AVERAGE(B3:D3)</f>
         <v>178.66666666666666</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3">
         <f>AVERAGE(E3:G3)</f>
         <v>181.29999999999998</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3">
         <f>H3/$H$3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3">
         <f>I3/$I$3</f>
         <v>1</v>
       </c>
@@ -1122,19 +1190,19 @@
       <c r="G4" s="1">
         <v>723.9</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4">
         <f t="shared" ref="H4:H7" si="0">AVERAGE(B4:D4)</f>
         <v>721.62333333333333</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4">
         <f t="shared" ref="I4:I7" si="1">AVERAGE(E4:G4)</f>
         <v>724.36666666666667</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4">
         <f t="shared" ref="J4:J7" si="2">H4/$H$3</f>
         <v>4.0389365671641793</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4">
         <f t="shared" ref="K4:K7" si="3">I4/$I$3</f>
         <v>3.9954035668321386</v>
       </c>
@@ -1155,19 +1223,19 @@
       <c r="F5" s="1">
         <v>1099</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>1094.0999999999999</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5">
         <f t="shared" si="1"/>
         <v>1099.5</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5">
         <f t="shared" si="2"/>
         <v>6.1236940298507463</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5">
         <f t="shared" si="3"/>
         <v>6.0645339216767793</v>
       </c>
@@ -1182,19 +1250,19 @@
       <c r="E6" s="1">
         <v>16220</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>16204</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6">
         <f t="shared" si="1"/>
         <v>16220</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6">
         <f t="shared" si="2"/>
         <v>90.694029850746276</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6">
         <f t="shared" si="3"/>
         <v>89.464975179260904</v>
       </c>
@@ -1224,19 +1292,19 @@
       <c r="G7" s="1">
         <v>1175</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>1148.4333333333334</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7">
         <f t="shared" si="1"/>
         <v>1164</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7">
         <f t="shared" si="2"/>
         <v>6.4277985074626871</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7">
         <f t="shared" si="3"/>
         <v>6.4202978488692777</v>
       </c>
@@ -1257,19 +1325,19 @@
       <c r="F8" s="1">
         <v>806</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8">
         <f t="shared" ref="H8" si="4">AVERAGE(B8:D8)</f>
         <v>802.26</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8">
         <f t="shared" ref="I8" si="5">AVERAGE(E8:G8)</f>
         <v>806.75</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8">
         <f t="shared" ref="J8" si="6">H8/$H$3</f>
         <v>4.4902611940298511</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8">
         <f t="shared" ref="K8" si="7">I8/$I$3</f>
         <v>4.4498069498069501</v>
       </c>
@@ -1288,6 +1356,45 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="5">
+        <v>807.88</v>
+      </c>
+      <c r="E13" s="5">
+        <v>813.6</v>
+      </c>
+      <c r="L13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1">
+        <v>762.24</v>
+      </c>
+      <c r="E14" s="1">
+        <v>768.7</v>
+      </c>
+      <c r="L14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.0108999999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <v>330.7</v>
       </c>
     </row>
   </sheetData>
